--- a/Peper/VideoRecordDataCollection.xlsx
+++ b/Peper/VideoRecordDataCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichengchen/Documents/GitHub/Paper-work/Peper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3236C6F1-84F2-F14B-8758-E8FDA347CCED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E5942A-FC5F-9145-824F-D90FA77B02B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="600" windowWidth="20200" windowHeight="16120" activeTab="1" xr2:uid="{63AB1EB1-D2CF-8347-868F-F113E3942087}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="20200" windowHeight="16120" xr2:uid="{63AB1EB1-D2CF-8347-868F-F113E3942087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,31 +419,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B4BDE4-C7D7-C64E-B5E5-52E6C8661657}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -456,8 +456,20 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>7</v>
       </c>
@@ -470,8 +482,20 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>0</v>
       </c>
@@ -484,8 +508,20 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>0</v>
       </c>
@@ -498,8 +534,20 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>0</v>
       </c>
@@ -512,8 +560,20 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>0</v>
       </c>
@@ -526,8 +586,20 @@
       <c r="E8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>3</v>
       </c>
@@ -540,8 +612,20 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
@@ -554,8 +638,20 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>0</v>
       </c>
@@ -568,8 +664,20 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>4</v>
       </c>
@@ -582,8 +690,20 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>0</v>
       </c>
@@ -596,8 +716,20 @@
       <c r="E13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0</v>
       </c>
@@ -610,8 +742,20 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>9</v>
       </c>
@@ -624,8 +768,20 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>4</v>
       </c>
@@ -638,8 +794,17 @@
       <c r="E16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -652,8 +817,17 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -663,8 +837,11 @@
       <c r="E18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -675,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -686,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -697,7 +874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>12</v>
       </c>
@@ -708,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -719,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -730,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -741,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -749,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>4</v>
       </c>
@@ -757,7 +934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -765,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>18</v>
       </c>
@@ -773,7 +950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>5</v>
       </c>
@@ -790,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B8B68-2BD1-E142-BFD4-DF539BED65FF}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Peper/VideoRecordDataCollection.xlsx
+++ b/Peper/VideoRecordDataCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichengchen/Documents/GitHub/Paper-work/Peper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E5942A-FC5F-9145-824F-D90FA77B02B2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D3AC8-9C33-EE40-8D25-A87DD3DB3714}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="20200" windowHeight="16120" xr2:uid="{63AB1EB1-D2CF-8347-868F-F113E3942087}"/>
+    <workbookView xWindow="31060" yWindow="740" windowWidth="20200" windowHeight="20620" activeTab="1" xr2:uid="{63AB1EB1-D2CF-8347-868F-F113E3942087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Premiere pro file&gt;Done&gt;Down 3(Disney)</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>Num of people between gates(sec):</t>
+  </si>
+  <si>
+    <t>Avg:</t>
+  </si>
+  <si>
+    <t>Num:</t>
+  </si>
+  <si>
+    <t>Count:</t>
+  </si>
+  <si>
+    <t>Max:</t>
+  </si>
+  <si>
+    <t>Sum:</t>
   </si>
 </sst>
 </file>
@@ -102,9 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B4BDE4-C7D7-C64E-B5E5-52E6C8661657}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="107" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>0</v>
       </c>
@@ -827,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>0</v>
       </c>
@@ -841,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>0</v>
       </c>
@@ -852,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>1</v>
       </c>
@@ -863,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>0</v>
       </c>
@@ -874,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>12</v>
       </c>
@@ -885,7 +903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>0</v>
       </c>
@@ -896,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>0</v>
       </c>
@@ -907,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>2</v>
       </c>
@@ -918,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>0</v>
       </c>
@@ -926,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>4</v>
       </c>
@@ -934,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>0</v>
       </c>
@@ -942,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>18</v>
       </c>
@@ -950,12 +968,128 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="E30">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>2.66</v>
+      </c>
+      <c r="C32">
+        <v>3.73</v>
+      </c>
+      <c r="D32">
+        <v>5.33</v>
+      </c>
+      <c r="E32">
+        <v>2.92</v>
+      </c>
+      <c r="G32">
+        <v>3.12</v>
+      </c>
+      <c r="H32">
+        <v>4.46</v>
+      </c>
+      <c r="I32">
+        <v>3.26</v>
+      </c>
+      <c r="J32">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>21</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>72</v>
+      </c>
+      <c r="C35">
+        <v>86</v>
+      </c>
+      <c r="D35">
+        <v>80</v>
+      </c>
+      <c r="E35">
+        <v>82</v>
+      </c>
+      <c r="G35">
+        <v>50</v>
+      </c>
+      <c r="H35">
+        <v>58</v>
+      </c>
+      <c r="I35">
+        <v>49</v>
+      </c>
+      <c r="J35">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -965,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015B8B68-2BD1-E142-BFD4-DF539BED65FF}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1388,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>0</v>
       </c>
@@ -1399,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>0</v>
       </c>
@@ -1410,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>1</v>
       </c>
@@ -1421,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>0</v>
       </c>
@@ -1432,19 +1566,87 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>1.91</v>
+      </c>
+      <c r="C41">
+        <v>1.78</v>
+      </c>
+      <c r="D41">
+        <v>1.58</v>
+      </c>
+      <c r="E41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42">
+        <v>34</v>
+      </c>
+      <c r="C42">
+        <v>37</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>65</v>
+      </c>
+      <c r="C44">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>54</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
